--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,51 +416,117 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>interest from saving Account</v>
+        <v>foods</v>
       </c>
       <c r="B2">
-        <v>4300</v>
+        <v>2499</v>
       </c>
       <c r="C2" s="1">
-        <v>45929.229537037034</v>
+        <v>45958.229537037034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">salary </v>
+        <v>freelance</v>
       </c>
       <c r="B3">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="C3" s="1">
-        <v>45928.229537037034</v>
+        <v>45951.229537037034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>from bakery shop</v>
+        <v>Trading</v>
       </c>
       <c r="B4">
         <v>5000</v>
       </c>
       <c r="C4" s="1">
-        <v>45927.229537037034</v>
+        <v>45943.229537037034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>from vehicle sale</v>
+        <v>from new restaurant</v>
       </c>
       <c r="B5">
+        <v>8500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45936.229537037034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>gardening</v>
+      </c>
+      <c r="B6">
+        <v>12000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45926.229537037034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>online store</v>
+      </c>
+      <c r="B7">
+        <v>25000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45923.229537037034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>salary</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45915.229537037034</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>game streaming</v>
+      </c>
+      <c r="B9">
+        <v>12000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45907.229537037034</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Car sale</v>
+      </c>
+      <c r="B10">
         <v>20000</v>
       </c>
-      <c r="C5" s="1">
-        <v>45925.229537037034</v>
+      <c r="C10" s="1">
+        <v>45904.229537037034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>From Bank</v>
+      </c>
+      <c r="B11">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45902.229537037034</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,51 +416,95 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>interest from saving Account</v>
+        <v>Trading</v>
       </c>
       <c r="B2">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="1">
-        <v>45929.229537037034</v>
+        <v>45943.229537037034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">salary </v>
+        <v>from new restaurant</v>
       </c>
       <c r="B3">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="C3" s="1">
-        <v>45928.229537037034</v>
+        <v>45936.229537037034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>from bakery shop</v>
+        <v>gardening</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>45927.229537037034</v>
+        <v>45926.229537037034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>from vehicle sale</v>
+        <v>online store</v>
       </c>
       <c r="B5">
+        <v>25000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45923.229537037034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>salary</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45915.229537037034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>game streaming</v>
+      </c>
+      <c r="B7">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45907.229537037034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Car sale</v>
+      </c>
+      <c r="B8">
         <v>20000</v>
       </c>
-      <c r="C5" s="1">
-        <v>45925.229537037034</v>
+      <c r="C8" s="1">
+        <v>45904.229537037034</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>From Bank</v>
+      </c>
+      <c r="B9">
+        <v>15000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45902.229537037034</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>